--- a/OrangeHRMWebApplication/artifact/data/OHRM_01_signup.data.xlsx
+++ b/OrangeHRMWebApplication/artifact/data/OHRM_01_signup.data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500"/>
+    <workbookView windowWidth="14100" windowHeight="9045" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
@@ -76,7 +76,34 @@
     <t>nexial.browser</t>
   </si>
   <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>nexial.browserstack.browser</t>
+  </si>
+  <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>nexial.browserstack.username</t>
+  </si>
+  <si>
+    <t>sandhiyamunisamy1</t>
+  </si>
+  <si>
+    <t>nexial.browserstack.automateKey</t>
+  </si>
+  <si>
+    <t>rNG6nSGKb3vEz5bJ5pqW</t>
+  </si>
+  <si>
+    <t>browserstack.local</t>
+  </si>
+  <si>
+    <t>nexial.browserstack.reportStatus</t>
+  </si>
+  <si>
+    <t>execution</t>
   </si>
   <si>
     <t>url</t>
@@ -129,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -190,16 +217,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,6 +262,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -219,103 +337,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -326,25 +353,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,25 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,127 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,41 +562,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,11 +586,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +627,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -632,151 +650,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -873,12 +900,11 @@
       <font>
         <b val="1"/>
         <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.249946592608417"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.599963377788629"/>
+          <bgColor theme="0" tint="-0.14996795556505"/>
         </patternFill>
       </fill>
     </dxf>
@@ -898,12 +924,25 @@
       <font>
         <b val="1"/>
         <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.249946592608417"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.599963377788629"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
         <color theme="1"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
@@ -918,18 +957,6 @@
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.0499893185216834"/>
         </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
       </fill>
     </dxf>
   </dxfs>
@@ -1213,10 +1240,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AAA202"/>
+  <dimension ref="A1:AAA207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1312,7 +1339,7 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="HA9" s="8"/>
@@ -1332,7 +1359,7 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="HA11" s="8"/>
@@ -1342,49 +1369,94 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="HA12" s="8"/>
       <c r="AAA12" s="9"/>
     </row>
-    <row r="13" ht="23" customHeight="1" spans="1:2">
+    <row r="13" ht="23" customHeight="1" spans="1:703">
       <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="HA13" s="8"/>
+      <c r="AAA13" s="9"/>
+    </row>
+    <row r="14" ht="23" customHeight="1" spans="1:703">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" ht="23" customHeight="1" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="HA14" s="8"/>
+      <c r="AAA14" s="9"/>
+    </row>
+    <row r="15" ht="23" customHeight="1" spans="1:703">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" ht="23" customHeight="1" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="HA15" s="8"/>
+      <c r="AAA15" s="9"/>
+    </row>
+    <row r="16" ht="23" customHeight="1" spans="1:703">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" ht="23" customHeight="1" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="5">
+      <c r="HA16" s="8"/>
+      <c r="AAA16" s="9"/>
+    </row>
+    <row r="17" ht="23" customHeight="1" spans="1:703">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="HA17" s="8"/>
+      <c r="AAA17" s="9"/>
+    </row>
+    <row r="18" ht="23" customHeight="1" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" ht="23" customHeight="1" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" ht="23" customHeight="1" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" ht="23" customHeight="1" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="5">
         <v>7502987295</v>
       </c>
     </row>
-    <row r="17" ht="23" customHeight="1"/>
-    <row r="18" ht="23" customHeight="1"/>
-    <row r="19" ht="23" customHeight="1"/>
-    <row r="20" ht="23" customHeight="1"/>
-    <row r="21" ht="23" customHeight="1"/>
     <row r="22" ht="23" customHeight="1"/>
     <row r="23" ht="23" customHeight="1"/>
     <row r="24" ht="23" customHeight="1"/>
@@ -1566,30 +1638,73 @@
     <row r="200" ht="23" customHeight="1"/>
     <row r="201" ht="23" customHeight="1"/>
     <row r="202" ht="23" customHeight="1"/>
+    <row r="203" ht="23" customHeight="1"/>
+    <row r="204" ht="23" customHeight="1"/>
+    <row r="205" ht="23" customHeight="1"/>
+    <row r="206" ht="23" customHeight="1"/>
+    <row r="207" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0"/>
-  <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="nexial.scope.">
+  <conditionalFormatting sqref="A12">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A12))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A12,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A12,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="5">
+      <formula>LEN(TRIM(B12))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="sentry.scope."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:A1048576">
+    <cfRule type="beginsWith" dxfId="2" priority="11" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A14,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="12" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A14,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="13" stopIfTrue="1">
+      <formula>LEN(TRIM(A14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A11 A13">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="8" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B11 B13">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="10">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
+    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="sentry.scope."</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B10 B17:B1048576">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="B22:B1048576 B14:B15">
+    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
-      <formula>LEN(TRIM(B1))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="15">
+      <formula>LEN(TRIM(B14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="https://www.orangehrm.com/"/>
-    <hyperlink ref="B13" r:id="rId2" display="sandhiya.munisamy@atmecs.com"/>
+    <hyperlink ref="B14" r:id="rId1" display="https://www.orangehrm.com/"/>
+    <hyperlink ref="B18" r:id="rId2" display="sandhiya.munisamy@atmecs.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/OrangeHRMWebApplication/artifact/data/OHRM_01_signup.data.xlsx
+++ b/OrangeHRMWebApplication/artifact/data/OHRM_01_signup.data.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
@@ -79,31 +79,16 @@
     <t>browserstack</t>
   </si>
   <si>
-    <t>nexial.browserstack.browser</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>nexial.browserstack.username</t>
   </si>
   <si>
     <t>sandhiyamunisamy1</t>
   </si>
   <si>
-    <t>nexial.browserstack.automateKey</t>
+    <t>nexial.browserstack.automatekey</t>
   </si>
   <si>
     <t>rNG6nSGKb3vEz5bJ5pqW</t>
-  </si>
-  <si>
-    <t>browserstack.local</t>
-  </si>
-  <si>
-    <t>nexial.browserstack.reportStatus</t>
-  </si>
-  <si>
-    <t>execution</t>
   </si>
   <si>
     <t>url</t>
@@ -900,11 +885,12 @@
       <font>
         <b val="1"/>
         <i val="0"/>
-        <color theme="1"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.249946592608417"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505"/>
+          <bgColor theme="4" tint="0.599963377788629"/>
         </patternFill>
       </fill>
     </dxf>
@@ -924,25 +910,12 @@
       <font>
         <b val="1"/>
         <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.249946592608417"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.599963377788629"/>
+          <bgColor theme="0" tint="-0.14996795556505"/>
         </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
@@ -957,6 +930,18 @@
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.0499893185216834"/>
         </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
   </dxfs>
@@ -1240,10 +1225,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AAA207"/>
+  <dimension ref="A1:AAA204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1359,7 +1344,7 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="HA11" s="8"/>
@@ -1370,93 +1355,66 @@
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="HA12" s="8"/>
       <c r="AAA12" s="9"/>
     </row>
     <row r="13" ht="23" customHeight="1" spans="1:703">
       <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="HA13" s="8"/>
       <c r="AAA13" s="9"/>
     </row>
     <row r="14" ht="23" customHeight="1" spans="1:703">
       <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="HA14" s="8"/>
       <c r="AAA14" s="9"/>
     </row>
-    <row r="15" ht="23" customHeight="1" spans="1:703">
+    <row r="15" ht="23" customHeight="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="HA15" s="8"/>
-      <c r="AAA15" s="9"/>
-    </row>
-    <row r="16" ht="23" customHeight="1" spans="1:703">
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" ht="23" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="HA16" s="8"/>
-      <c r="AAA16" s="9"/>
-    </row>
-    <row r="17" ht="23" customHeight="1" spans="1:703">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" ht="23" customHeight="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="HA17" s="8"/>
-      <c r="AAA17" s="9"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="18" ht="23" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" ht="23" customHeight="1" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" ht="23" customHeight="1" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" ht="23" customHeight="1" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="5">
+      <c r="B18" s="5">
         <v>7502987295</v>
       </c>
     </row>
+    <row r="19" ht="23" customHeight="1"/>
+    <row r="20" ht="23" customHeight="1"/>
+    <row r="21" ht="23" customHeight="1"/>
     <row r="22" ht="23" customHeight="1"/>
     <row r="23" ht="23" customHeight="1"/>
     <row r="24" ht="23" customHeight="1"/>
@@ -1640,71 +1598,49 @@
     <row r="202" ht="23" customHeight="1"/>
     <row r="203" ht="23" customHeight="1"/>
     <row r="204" ht="23" customHeight="1"/>
-    <row r="205" ht="23" customHeight="1"/>
-    <row r="206" ht="23" customHeight="1"/>
-    <row r="207" ht="23" customHeight="1"/>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0"/>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>LEN(TRIM(A12))&gt;0</formula>
+  <conditionalFormatting sqref="A1:A10">
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A12,LEN("nexial."))="nexial."</formula>
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A12,LEN("nexial.scope."))="nexial.scope."</formula>
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="5">
-      <formula>LEN(TRIM(B12))&gt;0</formula>
+  <conditionalFormatting sqref="A11:A1048576">
+    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A11,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A11,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="2" priority="18" stopIfTrue="1">
+      <formula>LEN(TRIM(A11))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B10">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="sentry.scope."</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:A1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="11" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A14,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="12" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A14,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="13" stopIfTrue="1">
-      <formula>LEN(TRIM(A14))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A11 A13">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B11 B13">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="10">
-      <formula>LEN(TRIM(B1))&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="B11:B12 B19:B1048576">
+    <cfRule type="expression" dxfId="3" priority="19" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="sentry.scope."</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B1048576 B14:B15">
-    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="sentry.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="3" priority="15">
-      <formula>LEN(TRIM(B14))&gt;0</formula>
+    <cfRule type="notContainsBlanks" dxfId="4" priority="20">
+      <formula>LEN(TRIM(B11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" display="https://www.orangehrm.com/"/>
-    <hyperlink ref="B18" r:id="rId2" display="sandhiya.munisamy@atmecs.com"/>
+    <hyperlink ref="B11" r:id="rId1" display="https://www.orangehrm.com/"/>
+    <hyperlink ref="B15" r:id="rId2" display="sandhiya.munisamy@atmecs.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
